--- a/MATH_629/Data/multmylenoma.xlsx
+++ b/MATH_629/Data/multmylenoma.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="7">
   <si>
     <t>Survt</t>
   </si>
@@ -60,9 +60,6 @@
   </si>
   <si>
     <t>RW</t>
-  </si>
-  <si>
-    <t>Ow</t>
   </si>
 </sst>
 </file>
@@ -387,7 +384,7 @@
   <dimension ref="A1:E49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -790,7 +787,7 @@
         <v>1</v>
       </c>
       <c r="D28" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
